--- a/biology/Zoologie/Refuge_faunique_national_des_prairies_de_Cokeville/Refuge_faunique_national_des_prairies_de_Cokeville.xlsx
+++ b/biology/Zoologie/Refuge_faunique_national_des_prairies_de_Cokeville/Refuge_faunique_national_des_prairies_de_Cokeville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le refuge faunique national des prairies de Cokeville (en anglais : Cokeville Meadows National Wildlife Refuge) est un National Wildlife Refuge situé au sud de Cokeville, dans l'État américain du Wyoming.
-Créé en 1992, le refuge a vocation à protéger une superficie totale de 26 657 acres (107,88 km2), composée de collines et de zones humides autour de la Bear River. À l'heure actuelle, seuls 9 259 acres (37,47 km2) ont été achetés par le gouvernement fédéral ou font l'objet d'une servitude environnementale[1].
+Créé en 1992, le refuge a vocation à protéger une superficie totale de 26 657 acres (107,88 km2), composée de collines et de zones humides autour de la Bear River. À l'heure actuelle, seuls 9 259 acres (37,47 km2) ont été achetés par le gouvernement fédéral ou font l'objet d'une servitude environnementale.
 </t>
         </is>
       </c>
